--- a/artfynd/A 22732-2023.xlsx
+++ b/artfynd/A 22732-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112241888</v>
+        <v>112241889</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         <v>553253</v>
       </c>
       <c r="R2" t="n">
-        <v>7007768</v>
+        <v>7007769</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112241884</v>
+        <v>112241887</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553337</v>
+        <v>553188</v>
       </c>
       <c r="R3" t="n">
-        <v>7007616</v>
+        <v>7007666</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112241886</v>
+        <v>112241888</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>553306</v>
+        <v>553253</v>
       </c>
       <c r="R4" t="n">
-        <v>7007600</v>
+        <v>7007768</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>112241875</v>
       </c>
       <c r="B5" t="n">
-        <v>78605</v>
+        <v>78726</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112241885</v>
+        <v>112241886</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>553321</v>
+        <v>553306</v>
       </c>
       <c r="R6" t="n">
-        <v>7007611</v>
+        <v>7007600</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112241887</v>
+        <v>112241884</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>553188</v>
+        <v>553337</v>
       </c>
       <c r="R7" t="n">
-        <v>7007666</v>
+        <v>7007616</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112241889</v>
+        <v>112241885</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>553253</v>
+        <v>553321</v>
       </c>
       <c r="R8" t="n">
-        <v>7007769</v>
+        <v>7007611</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 22732-2023.xlsx
+++ b/artfynd/A 22732-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112241889</v>
+        <v>112241886</v>
       </c>
       <c r="B2" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>553253</v>
+        <v>553306</v>
       </c>
       <c r="R2" t="n">
-        <v>7007769</v>
+        <v>7007600</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112241887</v>
+        <v>112241888</v>
       </c>
       <c r="B3" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553188</v>
+        <v>553253</v>
       </c>
       <c r="R3" t="n">
-        <v>7007666</v>
+        <v>7007768</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112241888</v>
+        <v>112241889</v>
       </c>
       <c r="B4" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>553253</v>
       </c>
       <c r="R4" t="n">
-        <v>7007768</v>
+        <v>7007769</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112241875</v>
+        <v>112241885</v>
       </c>
       <c r="B5" t="n">
-        <v>78726</v>
+        <v>78713</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -998,25 +998,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553188</v>
+        <v>553321</v>
       </c>
       <c r="R5" t="n">
-        <v>7007668</v>
+        <v>7007611</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112241886</v>
+        <v>112241887</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>553306</v>
+        <v>553188</v>
       </c>
       <c r="R6" t="n">
-        <v>7007600</v>
+        <v>7007666</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,7 +1193,7 @@
         <v>112241884</v>
       </c>
       <c r="B7" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112241885</v>
+        <v>112241875</v>
       </c>
       <c r="B8" t="n">
-        <v>78699</v>
+        <v>78740</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1304,25 +1304,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>553321</v>
+        <v>553188</v>
       </c>
       <c r="R8" t="n">
-        <v>7007611</v>
+        <v>7007668</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 22732-2023.xlsx
+++ b/artfynd/A 22732-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112241886</v>
+        <v>112241889</v>
       </c>
       <c r="B2" t="n">
         <v>78713</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>553306</v>
+        <v>553253</v>
       </c>
       <c r="R2" t="n">
-        <v>7007600</v>
+        <v>7007769</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112241888</v>
+        <v>112241884</v>
       </c>
       <c r="B3" t="n">
         <v>78713</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553253</v>
+        <v>553337</v>
       </c>
       <c r="R3" t="n">
-        <v>7007768</v>
+        <v>7007616</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112241889</v>
+        <v>112241888</v>
       </c>
       <c r="B4" t="n">
         <v>78713</v>
@@ -927,7 +927,7 @@
         <v>553253</v>
       </c>
       <c r="R4" t="n">
-        <v>7007769</v>
+        <v>7007768</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112241885</v>
+        <v>112241886</v>
       </c>
       <c r="B5" t="n">
         <v>78713</v>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553321</v>
+        <v>553306</v>
       </c>
       <c r="R5" t="n">
-        <v>7007611</v>
+        <v>7007600</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112241887</v>
+        <v>112241875</v>
       </c>
       <c r="B6" t="n">
-        <v>78713</v>
+        <v>78740</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1100,25 +1100,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
         <v>553188</v>
       </c>
       <c r="R6" t="n">
-        <v>7007666</v>
+        <v>7007668</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112241884</v>
+        <v>112241885</v>
       </c>
       <c r="B7" t="n">
         <v>78713</v>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>553337</v>
+        <v>553321</v>
       </c>
       <c r="R7" t="n">
-        <v>7007616</v>
+        <v>7007611</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112241875</v>
+        <v>112241887</v>
       </c>
       <c r="B8" t="n">
-        <v>78740</v>
+        <v>78713</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1304,25 +1304,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
         <v>553188</v>
       </c>
       <c r="R8" t="n">
-        <v>7007668</v>
+        <v>7007666</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
